--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -233,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果当前显示的推文是屏蔽用户的推文，则自动跳转到新鲜事页面，同时不记录当前URL记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示，下次点击刷新列表，如果是当前页面则立即刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮提示已屏蔽字样，点击解除屏蔽, 下次点击刷新列表，如果是当前页面则立即刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +322,29 @@
   <si>
     <t>ok 不显示屏蔽的用户，如果用户解除屏蔽后则重新显示
 ok 如果在系统其它位置对用户设置了屏蔽或者取消屏蔽，在下次进入本页面会立即刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文页新载入策略：
+    ok 溯源部分：屏蔽用户的推文显示：由于用户被屏蔽，该推文不可见
+    ok 回复及转发栏目：不显示屏蔽用户的短文
+    ok 转发用户栏：不显示屏蔽的用户
+    ok 点赞栏：不显示屏蔽用户
+    ok 点踩栏：不显示屏蔽用户
+当前处于推文页：
+    ok 如果本推文是屏蔽用户发送的：则自动跳转到新鲜事页面, 同时不记录当前URL记录
+    ok 如果本推文不是屏蔽用户发送的：立即刷新本页面
+当前不在推文页：
+    ok 删除所有的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页已屏蔽改造
+   ok 已屏蔽状态显示xxx已被屏蔽
+   ok 翻页到底，只显示已屏蔽状态页面
+   ok 已屏蔽默认状态下不加载推文，个人页右侧栏
+   ok 点击查看发言按钮后，则进行强制加载，显示所有内容
+   ok 解决了刷新页面后屏蔽状态混乱的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1142,7 +1157,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1186,7 +1201,7 @@
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1211,7 +1226,7 @@
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1236,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1412,7 +1427,7 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="17" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1533,7 +1548,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -1611,7 +1626,7 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1657,7 +1672,7 @@
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1682,7 +1697,7 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1705,7 +1720,7 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1728,7 +1743,7 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1751,7 +1766,7 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1774,7 +1789,7 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1798,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1821,10 +1836,10 @@
       <c r="A32" s="26"/>
       <c r="B32" s="20"/>
       <c r="C32" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1844,10 +1859,10 @@
       <c r="A33" s="26"/>
       <c r="B33" s="20"/>
       <c r="C33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1867,10 +1882,10 @@
       <c r="A34" s="26"/>
       <c r="B34" s="20"/>
       <c r="C34" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1916,7 +1931,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1962,7 +1977,7 @@
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2006,7 +2021,7 @@
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +346,67 @@
    ok 已屏蔽默认状态下不加载推文，个人页右侧栏
    ok 点击查看发言按钮后，则进行强制加载，显示所有内容
    ok 解决了刷新页面后屏蔽状态混乱的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够获取和显示置顶信息
+本页点击置顶后能够通知其它所有页面同步
+能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够获取和显示置顶信息
+本页点击置顶后能够通知其它所有页面同步
+能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够获取和显示置顶信息
+本页点击置顶后能够通知其它所有页面同步
+能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够获取和显示置顶信息
+本页点击置顶后能够通知其它所有页面同步
+能够响应本页面置顶点击后同步刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够获取和显示置顶信息
+本页点击置顶后能够通知其它所有页面同步
+能够响应本页面置顶点击后同步刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够响应系统置顶点击后同步更新所有的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 能够显示不同的内容和进行不同的操作，置顶/取消置顶
+ok 置顶和取消置顶的确认对话框 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 置顶短文按照最新最靠前的原则排序
+ok 当用户在别的页面点击，如果本页面显示的是自己，则本页面在下次进入时全部重新刷新
+ok 当用户在本页，但在别的栏目时，则本栏目在下次点击强制刷新
+ok 当用户在本页面本栏目选择置顶功能后，本栏目立即刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 置顶短文按照最新最靠前的原则排序
+ok 当用户在别的页面点击，如果本页面显示的是自己，则本页面在下次进入时全部重新刷新
+ok 当用户在本页，但在别的栏目时，则本栏目在下次点击强制刷新
+ok 当用户在本页面本栏目选择置顶功能后，本栏目立即刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,6 +847,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -794,38 +898,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,11 +1204,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1149,13 +1229,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1174,11 +1254,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1195,11 +1275,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1218,13 +1298,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1243,14 +1323,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="31" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -1268,12 +1348,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1289,12 +1369,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1310,14 +1390,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1333,12 +1413,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1354,12 +1434,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1375,14 +1455,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1398,12 +1478,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1419,14 +1499,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="31" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -1444,12 +1524,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1465,12 +1545,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1486,12 +1566,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1507,12 +1587,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1528,12 +1608,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1549,12 +1629,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1570,13 +1650,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1595,11 +1675,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1618,13 +1698,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -1643,11 +1723,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1667,10 +1747,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1689,13 +1769,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1714,11 +1794,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1737,11 +1817,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1760,11 +1840,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1783,11 +1863,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -1806,10 +1886,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1833,8 +1913,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -1856,8 +1936,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -1879,8 +1959,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -1902,8 +1982,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -1925,8 +2005,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -1948,13 +2028,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1971,11 +2051,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -1994,11 +2074,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2015,11 +2095,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2040,6 +2120,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B40:C40"/>
@@ -2056,32 +2162,488 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A13"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,40 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能够获取和显示置顶信息
-本页点击置顶后能够通知其它所有页面同步
-能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够获取和显示置顶信息
-本页点击置顶后能够通知其它所有页面同步
-能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够获取和显示置顶信息
-本页点击置顶后能够通知其它所有页面同步
-能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够获取和显示置顶信息
-本页点击置顶后能够通知其它所有页面同步
-能够响应本页面置顶点击后同步刷新显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够获取和显示置顶信息
-本页点击置顶后能够通知其它所有页面同步
-能够响应本页面置顶点击后同步刷新显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够响应系统置顶点击后同步更新所有的历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ok 能够显示不同的内容和进行不同的操作，置顶/取消置顶
 ok 置顶和取消置顶的确认对话框 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +373,34 @@
 ok 当用户在别的页面点击，如果本页面显示的是自己，则本页面在下次进入时全部重新刷新
 ok 当用户在本页，但在别的栏目时，则本栏目在下次点击强制刷新
 ok 当用户在本页面本栏目选择置顶功能后，本栏目立即刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 能够响应其它页面置顶点击后同步刷新显示(缓存内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够响应系统置顶点击后同步更新所有的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 能够获取和显示置顶信息
+ok 本页点击置顶后能够通知其它所有页面同步
+ok 能够响应本页面置顶点击后同步刷新显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,9 +850,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,44 +898,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,11 +1198,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1229,13 +1223,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1254,11 +1248,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1275,11 +1269,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1298,13 +1292,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1323,14 +1317,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -1348,12 +1342,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1369,12 +1363,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1390,14 +1384,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1413,12 +1407,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1434,12 +1428,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1455,14 +1449,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1478,12 +1472,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1499,14 +1493,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -1524,12 +1518,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1545,12 +1539,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1566,12 +1560,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1587,12 +1581,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1608,12 +1602,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1629,12 +1623,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1650,13 +1644,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1675,11 +1669,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1698,13 +1692,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -1723,11 +1717,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1747,10 +1741,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1769,13 +1763,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1794,11 +1788,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1817,11 +1811,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1840,11 +1834,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1863,11 +1857,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -1886,10 +1880,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1913,8 +1907,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -1936,8 +1930,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -1959,8 +1953,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -1982,8 +1976,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -2005,8 +1999,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -2028,13 +2022,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2051,11 +2045,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -2074,11 +2068,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2095,11 +2089,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2120,6 +2114,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="B30:C30"/>
@@ -2136,32 +2156,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,250 +2180,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>83</v>
+      <c r="D8" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35" t="s">
-        <v>82</v>
+      <c r="C11" s="27"/>
+      <c r="D11" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="34" t="s">
-        <v>79</v>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="35" t="s">
-        <v>78</v>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35" t="s">
-        <v>78</v>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="36" t="s">
-        <v>80</v>
+      <c r="C20" s="27"/>
+      <c r="D20" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="10"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="10"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
@@ -2437,75 +2431,75 @@
       <c r="A25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -2515,8 +2509,8 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="17" t="s">
         <v>63</v>
       </c>
@@ -2524,8 +2518,8 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="17" t="s">
         <v>64</v>
       </c>
@@ -2533,8 +2527,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="17" t="s">
         <v>65</v>
       </c>
@@ -2542,8 +2536,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -2553,8 +2547,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="17" t="s">
         <v>42</v>
       </c>
@@ -2562,56 +2556,70 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="11"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -2622,28 +2630,14 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
     <t>ok 能够获取和显示置顶信息
 ok 本页点击置顶后能够通知其它所有页面同步
 ok 能够响应本页面置顶点击后同步刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -787,11 +795,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -859,6 +893,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -868,37 +935,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,11 +1238,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1223,13 +1263,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1248,11 +1288,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1269,11 +1309,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1292,13 +1332,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1317,14 +1357,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -1342,12 +1382,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1363,12 +1403,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1384,14 +1424,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1407,12 +1447,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1428,12 +1468,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1449,14 +1489,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1472,12 +1512,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1493,14 +1533,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="34" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -1518,12 +1558,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1539,12 +1579,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1560,12 +1600,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1581,12 +1621,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1602,12 +1642,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1623,12 +1663,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1644,13 +1684,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1669,11 +1709,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1692,13 +1732,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -1717,11 +1757,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1741,10 +1781,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1763,13 +1803,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1788,11 +1828,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1811,11 +1851,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1834,11 +1874,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1857,11 +1897,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -1880,10 +1920,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1907,8 +1947,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -1930,8 +1970,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -1953,8 +1993,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -1976,8 +2016,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -1999,8 +2039,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -2022,13 +2062,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2045,11 +2085,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -2068,11 +2108,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2089,11 +2129,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2114,6 +2154,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A31:A36"/>
@@ -2130,32 +2196,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2165,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2180,61 +2220,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2244,8 +2284,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -2253,8 +2293,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2264,8 +2304,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2275,8 +2315,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2284,360 +2324,380 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="23"/>
+      <c r="B12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="38"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="20" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="21" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="26" t="s">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="21" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="22" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="27"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="28"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="10" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="10" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="26" t="s">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="10" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26" t="s">
-        <v>40</v>
-      </c>
+      <c r="A35" s="23"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="17" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="27"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="27"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="10" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="33" t="s">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +411,127 @@
   </si>
   <si>
     <t>关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B被别人(A)屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示A的主推文
+ok A作为副推文的情况，显示“ 您被此用户屏蔽，该短文不可用。” 
+ok 任何人无评论转发A的推文不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 整个右侧屏蔽显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 如果对方是A，则不显示按钮，私信按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok A相关的主推文不显示，包括回复和带评论转发
+ok A作为副推文的情况，显示“此短文不可查看” </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 发送私信，系统提示“您已被@xxx屏蔽，您的私信被拒收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok A相关的主推文显示“您被此用户屏蔽，该短文不可用。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 无法搜索到A的主推文
+ok A作为副推文的情况，显示“此短文不可查看” 
+ok 任何人无评论转发A的推文无法被搜索到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 无法搜索到A的主推文
+ok A作为副推文的情况，显示“此短文不可查看” 
+ok 任何人无评论转发A的推文无法被搜索到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 无法搜索到A的主推文
+ok A作为副推文的情况，显示“此短文不可查看” 
+ok 任何人无评论转发A的推文无法被搜索到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 无法搜索到A的主推文
+ok A作为副推文的情况，显示“此短文不可查看” 
+ok 任何人无评论转发A的推文无法被搜索到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 如果对方是A，则不显示功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示A相关的主推文，如果A解除屏蔽，则会自动重新显示
+ok A作为副推文的情况，显示“您被此用户屏蔽，该短文不可用。”
+删除任何人无评论转发A的推文，此类情况目前无法加入书签
+ok 检查出问题，竟然可以加转发类书签，需要对转发类推文操作算法修改
+ok 复制发言链接也有这个问题，复制的链接是转发贴本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关改造：
+ok 1. A用户屏蔽B用户，此时后台需要自动取消B对A的关注状态
+ok 2. 如果A用户屏蔽B用户，B如果关注A用户（前台不会出现这种情况），后台需要进行此类情况的有效性验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok A出现在列表中，则不显示右侧的功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok A出现在列表中，则不显示右侧的功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok A出现在列表中，则不显示右侧的功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 全部屏蔽，仅显示“@xxx已把您屏蔽，您无法查看该用户的个人信息”
+ok 如果是B的个人主页，综合，发言和回复，不显示A相关的推文(无评论转发）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B被别人(A)屏蔽后，B选择屏蔽A，此时双方的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok AB双方相互屏蔽后，B看A页面，或者A看B页面，均不显示右侧栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok AB双方相互屏蔽后，B看A页面，或者A看B页面，显示被对方屏蔽界面
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 私信按钮：屏蔽别人，或者被对方屏蔽，自己看自己，以上3种情况不显示，其余情况都显示
+ok 功能按钮：
+    双方相互屏蔽：不显示
+    B被A屏蔽后，B看A页面，显示“被屏蔽”，点击“屏蔽对方”
+    B被A屏蔽后，A看B页面，显示“已屏蔽”，点击“取消屏蔽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB相互屏蔽后，AB看本列表，显示“已屏蔽"点击”取消屏蔽“
+A屏蔽B后，A看本列表，显示”已屏蔽“点击”取消屏蔽“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的用户条，双方相互屏蔽后，显示”已屏蔽“点击”取消屏蔽“</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,6 +1019,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,6 +1084,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1377,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:E40"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,11 +1391,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1263,13 +1416,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1288,11 +1441,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1309,11 +1462,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1332,13 +1485,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1357,14 +1510,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="41" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -1382,12 +1535,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1403,12 +1556,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1424,14 +1577,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1447,12 +1600,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1468,12 +1621,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1489,14 +1642,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1512,12 +1665,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1533,14 +1686,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -1558,12 +1711,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1579,12 +1732,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1600,12 +1753,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1621,12 +1774,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1642,12 +1795,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1663,12 +1816,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1684,13 +1837,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1709,11 +1862,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1732,13 +1885,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -1757,11 +1910,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1781,10 +1934,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1803,13 +1956,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1828,11 +1981,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1851,11 +2004,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1874,11 +2027,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1897,11 +2050,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -1920,10 +2073,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1947,8 +2100,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -1970,8 +2123,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -1993,8 +2146,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -2016,8 +2169,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -2039,8 +2192,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -2062,13 +2215,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2085,11 +2238,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -2108,11 +2261,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2129,11 +2282,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2207,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2220,61 +2373,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2284,8 +2437,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -2293,8 +2446,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2304,8 +2457,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2315,8 +2468,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2324,37 +2477,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2364,8 +2517,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -2373,115 +2526,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -2489,75 +2642,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2567,8 +2720,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -2576,8 +2729,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -2585,8 +2738,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -2594,8 +2747,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -2605,8 +2758,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -2614,42 +2767,42 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="27" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5"/>
     </row>
@@ -2703,4 +2856,924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="A1:D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="封号等3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,12 +535,192 @@
     <t>所有的用户条，双方相互屏蔽后，显示”已屏蔽“点击”取消屏蔽“</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>推文别人菜单</t>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页禁止登录，提示封号状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">隐藏
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">可以处于关注状态，只是不看对方的推文
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下为A用户将B用户设置为隐藏状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">冻结
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">不能发帖，不能评论，不能转发，不能点赞点踩，
+别人看他需要显示账号冻结状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下为系统将A账号设置为冻结状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">封号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">不能登录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下为系统将A账号设置为封号状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户可以搜到A用户，但显示为冻结状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户不能搜索到B用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户不能搜索到B用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户不能搜索到B用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户不能搜索到B用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户可以搜索到B用户，但显示为隐藏状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止A发帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止回复，转发，带评论转发，点赞，点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+进入后显示基础信息和封号状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于封号则不能显示A推文，但仍处于关注状态
+对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被禁封，无法查看原文"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +760,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -600,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -944,11 +1134,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1040,6 +1278,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,36 +1323,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,6 +1340,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,11 +1653,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1416,13 +1678,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1441,11 +1703,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1462,11 +1724,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1485,13 +1747,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -1510,14 +1772,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="33" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -1535,12 +1797,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1556,12 +1818,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1577,14 +1839,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1600,12 +1862,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1621,12 +1883,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1642,14 +1904,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1665,12 +1927,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1686,14 +1948,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -1711,12 +1973,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1732,12 +1994,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1753,12 +2015,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1774,12 +2036,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1795,12 +2057,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1816,12 +2078,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1837,13 +2099,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -1862,11 +2124,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1885,13 +2147,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -1910,11 +2172,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1934,10 +2196,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1956,13 +2218,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1981,11 +2243,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -2004,11 +2266,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -2027,11 +2289,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -2050,11 +2312,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -2073,10 +2335,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -2100,8 +2362,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -2123,8 +2385,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -2146,8 +2408,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -2169,8 +2431,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -2192,8 +2454,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -2215,13 +2477,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2238,11 +2500,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -2261,11 +2523,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2282,11 +2544,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2307,6 +2569,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="B30:C30"/>
@@ -2323,32 +2611,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,61 +2635,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2437,8 +2699,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -2446,8 +2708,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2457,8 +2719,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2468,8 +2730,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -2477,37 +2739,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2517,8 +2779,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -2526,115 +2788,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -2642,75 +2904,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2720,8 +2982,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -2729,8 +2991,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -2738,8 +3000,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -2747,8 +3009,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -2758,8 +3020,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -2767,69 +3029,53 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="35"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:B15"/>
@@ -2846,11 +3092,27 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2874,247 +3136,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="51" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="10" t="s">
         <v>90</v>
       </c>
@@ -3123,71 +3385,71 @@
       <c r="A27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -3196,32 +3458,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -3230,47 +3492,47 @@
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="35"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -3280,13 +3542,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -3303,27 +3579,13 @@
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -3347,294 +3609,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -3643,32 +3905,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -3679,45 +3941,45 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="35"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -3727,6 +3989,42 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -3735,6 +4033,553 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="5" max="6" width="50.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="B42" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:C28"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="160">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,26 +693,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禁止回复，转发，带评论转发，点赞，点踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
-进入后显示基础信息和封号状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于封号则不能显示A推文，但仍处于关注状态
 对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被禁封，无法查看原文"
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+进入后显示基础信息和封号状态。
+只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>其它用户：推文栏显示“该用户被禁封，无法查看原文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被禁封，无法查看原文"</t>
+    <t>推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示头像，显示用户名和账号，显示：该用户被禁封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示头像，显示用户名和账号，显示：该用户被禁封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示相关贴
+对于回复贴，或者转发贴，在二级内容显示“该用户被禁封，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示A头像，显示A用户名和账号，显示：该用户被禁封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能给A用户发私信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能够显示用户名，账号，主页等基础信息，不能查看聊天室，推文等等
+其它用户进入A主页，显示（该账号被冻结）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于冻结则不能显示A推文，但仍处于关注状态
+对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被冻结，无法查看原文"
+禁止A用户回复，转发，带评论转发，点赞，点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有条件显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有条件显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户看B的短文，显示“该用户被您隐藏，点击查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户被您隐藏，点击查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户被您隐藏，点击查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加菜单“隐藏/取消隐藏”功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A无法看见B的主推文
+对于回复或者转发推文，在下面显示“该用户被您隐藏，推文不可见”
+响应别的页面发出的“隐藏/取消隐藏"请求，强制刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A看B主页，显示基础信息，并显示“该用户已被您隐藏，点击查看页面”，点击后A即可进入B的详细的用户页面
+A看B主页，功能按钮要增加“解除隐藏”功能
+响应别的页面发出的“隐藏/取消隐藏"请求，强制刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应别的页面发出的“隐藏/取消隐藏"请求，强制刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应别的页面发出的“隐藏/取消隐藏"请求，删除相关的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私信如何处理，需要屏蔽吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +886,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -790,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1148,17 +1273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1182,11 +1296,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,36 +1539,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,17 +1605,63 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4044,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4061,14 +4368,14 @@
         <v>49</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4079,156 +4386,174 @@
       <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="38"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="E4" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -4237,74 +4562,100 @@
       <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="47"/>
+      <c r="D16" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -4313,20 +4664,20 @@
       <c r="B23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
@@ -4335,32 +4686,40 @@
       <c r="B25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
       <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="47"/>
+      <c r="D26" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
@@ -4369,14 +4728,14 @@
       <c r="B28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="57" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4385,14 +4744,14 @@
       <c r="B29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="57" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4401,14 +4760,14 @@
       <c r="B30" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="57" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4417,14 +4776,14 @@
       <c r="B31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="57" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4433,14 +4792,14 @@
       <c r="B32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="57" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4451,64 +4810,64 @@
       <c r="B33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
       <c r="B36" s="36"/>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
       <c r="B37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
@@ -4517,52 +4876,54 @@
       <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="69"/>
+      <c r="D43" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -4572,13 +4933,13 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A28:A32"/>
@@ -4587,6 +4948,13 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -4601,21 +4969,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -13,6 +13,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="封号等3" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">封号等3!$A$1:$I$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="219">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +833,337 @@
   </si>
   <si>
     <t>私信如何处理，需要屏蔽吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">清理僵尸账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A用户：需要清理的僵尸账号
+B用户：A用户关注的账号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强删关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能</t>
+  </si>
+  <si>
+    <t>增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能, 选择A用户，强制删除A用户对所有用户的关注状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能: 设置A账号为封号状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能: 设置A账号为冻结状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注销账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户自己选择注销账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A用户：将自己注销，
+B用户：作为其它用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">私密状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">该用户推文不能被搜索到，只有粉丝才可以看，普通用户看该用户的主页，显示私密状态，需要本人认可才能加粉丝。加入粉丝后才能看主页或者搜索到 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A用户：将自己设置为私密状态
+B用户：不是A的粉丝
+C用户：是A的粉丝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">增加注销账号功能，需要有确认
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否需要增加冷却期？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户综合信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能
+能够显示冷却期，注销状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能
+通用功能：可以按照管理员名字，时间顺序，某个用户，某种操作作为查询条件进行查询
+可以显示对用户封号的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能：可以显示对用户进行冻结操作的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能：可以显示对用户进行清理关注操作的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能: 可以显示对用户的私密状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户操作历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以显示用户操作的所有历史记录，如发帖，关注等等.
+是否要增加本功能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能登录系统，提示账号已冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不显示A的主推文
+对于A的回复推文，带评论转发推文：在副推文栏显示“该用户已经注销，无法查看原文"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+进入后显示基础信息和注销状态。
+只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：推文栏显示“该用户已注销，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户已注销，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户已注销，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示头像，显示用户名和账号，显示：该用户已注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示头像，显示用户名和账号，显示：该用户已注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示A头像，显示A用户名和账号，显示：该用户已注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示相关贴
+对于回复贴，或者转发贴，在二级内容显示“该用户已注销，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能看到A发出的帖，C用户可以看到A发出的帖
+对于回复或者转发，副帖，B看上去显示“此为私密帖，无法查看”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A主页，仅显示基础信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A显示，该用户为私密状态，您无法查看详细信息,成为该用户的粉丝，即可访问该用户的详细信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户：推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户：（唯一进入方式为URL输入）推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户可以搜到A用户，但显示该用户为私密账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1443,11 +1777,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1545,70 +1947,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,6 +1973,75 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,8 +2050,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1648,20 +2071,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,11 +2392,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1985,13 +2417,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -2010,11 +2442,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2031,11 +2463,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2054,13 +2486,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2079,14 +2511,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="57" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -2104,12 +2536,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2125,12 +2557,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2146,14 +2578,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2169,12 +2601,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2190,12 +2622,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2211,14 +2643,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2234,12 +2666,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2255,14 +2687,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -2280,12 +2712,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2301,12 +2733,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2322,12 +2754,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2343,12 +2775,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2364,12 +2796,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2385,12 +2817,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2406,13 +2838,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -2431,11 +2863,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2454,13 +2886,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -2479,11 +2911,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2503,10 +2935,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -2525,13 +2957,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2550,11 +2982,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -2573,11 +3005,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -2596,11 +3028,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -2619,11 +3051,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -2642,10 +3074,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -2669,8 +3101,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -2692,8 +3124,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -2715,8 +3147,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -2738,8 +3170,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -2761,8 +3193,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -2784,13 +3216,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2807,11 +3239,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -2830,11 +3262,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2851,11 +3283,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -2876,6 +3308,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A31:A36"/>
@@ -2892,32 +3350,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2942,61 +3374,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3006,8 +3438,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -3015,8 +3447,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3026,8 +3458,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3037,8 +3469,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -3046,37 +3478,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3086,8 +3518,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -3095,115 +3527,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -3211,75 +3643,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -3289,8 +3721,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -3298,8 +3730,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -3307,8 +3739,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -3316,8 +3748,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -3327,8 +3759,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -3336,53 +3768,69 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:B15"/>
@@ -3399,27 +3847,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,247 +3875,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="62" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="10" t="s">
         <v>90</v>
       </c>
@@ -3692,71 +4124,71 @@
       <c r="A27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -3765,32 +4197,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -3799,47 +4231,47 @@
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -3849,6 +4281,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="A33:A38"/>
@@ -3865,34 +4325,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3916,294 +4348,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="64" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -4212,32 +4644,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -4248,45 +4680,45 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4296,6 +4728,35 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A1:C1"/>
@@ -4311,6 +4772,1005 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="9" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="114.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+    </row>
+    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="61"/>
+      <c r="D46" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A50" s="71"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -4325,6 +5785,7 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:C28"/>
@@ -4332,607 +5793,18 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="67.625" customWidth="1"/>
-    <col min="5" max="6" width="50.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="71"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="49">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="F6:F13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
@@ -4940,43 +5812,7 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B33:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="214">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其它用户可以搜到A用户，但显示为冻结状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A用户不能搜索到B用户的推文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,30 +665,6 @@
   </si>
   <si>
     <t>禁止A发帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户不能搜索到A用户的推文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,20 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
-进入后显示基础信息和封号状态。
-只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其它用户：推文栏显示“该用户被禁封，无法查看原文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,19 +708,6 @@
   </si>
   <si>
     <t>不能给A用户发私信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能够显示用户名，账号，主页等基础信息，不能查看聊天室，推文等等
-其它用户进入A主页，显示（该账号被冻结）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1166,12 +1111,63 @@
     <t>B用户可以搜到A用户，但显示该用户为私密账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ok 不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok 进入后显示基础信息和封号状态。
+ok 只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 只能够显示用户名，账号，主页等基础信息，不能查看聊天室，推文等等
+ok 其它用户进入A主页，显示（该账号被冻结）
+ok 隐藏私信按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被封号，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被冻结，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1224,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1849,7 +1853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1984,9 +1988,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,36 +2033,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2041,6 +2051,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2050,42 +2075,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2094,6 +2098,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2392,11 +2408,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -2417,13 +2433,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -2442,11 +2458,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2463,11 +2479,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2486,13 +2502,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2511,14 +2527,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="48" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -2536,12 +2552,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2557,12 +2573,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2578,14 +2594,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2601,12 +2617,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2622,12 +2638,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2643,14 +2659,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2666,12 +2682,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2687,14 +2703,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="48" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -2712,12 +2728,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2733,12 +2749,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2754,12 +2770,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2775,12 +2791,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2796,12 +2812,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2817,12 +2833,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2838,13 +2854,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -2863,11 +2879,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2886,13 +2902,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -2911,11 +2927,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2935,10 +2951,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -2957,13 +2973,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2982,11 +2998,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -3005,11 +3021,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3028,11 +3044,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -3051,11 +3067,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3074,10 +3090,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -3101,8 +3117,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -3124,8 +3140,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -3147,8 +3163,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -3170,8 +3186,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -3193,8 +3209,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -3216,13 +3232,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3239,11 +3255,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -3262,11 +3278,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3283,11 +3299,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -3308,6 +3324,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="B30:C30"/>
@@ -3324,32 +3366,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3374,61 +3390,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3438,8 +3454,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -3447,8 +3463,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3458,8 +3474,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3469,8 +3485,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -3478,37 +3494,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3518,8 +3534,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -3527,115 +3543,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -3643,75 +3659,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -3721,8 +3737,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -3730,8 +3746,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -3739,8 +3755,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -3748,8 +3764,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -3759,8 +3775,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -3768,69 +3784,53 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:B15"/>
@@ -3847,11 +3847,27 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,247 +3891,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="64" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10" t="s">
         <v>90</v>
       </c>
@@ -4124,71 +4140,71 @@
       <c r="A27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -4197,32 +4213,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -4231,47 +4247,47 @@
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -4281,13 +4297,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -4304,27 +4334,13 @@
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4348,294 +4364,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="66" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="64" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -4644,32 +4660,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -4680,45 +4696,45 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4728,35 +4744,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A1:C1"/>
@@ -4772,6 +4759,35 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4784,10 +4800,10 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6:H13"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4798,11 +4814,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="114.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="43" t="s">
         <v>114</v>
       </c>
@@ -4813,23 +4829,23 @@
         <v>112</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="44"/>
@@ -4838,14 +4854,14 @@
       <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -4853,360 +4869,360 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I4" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>141</v>
-      </c>
       <c r="F5" s="37" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>210</v>
+      <c r="D6" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>211</v>
+      <c r="D14" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="42" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="35" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="35" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="35" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -5215,11 +5231,11 @@
       <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="38"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -5228,40 +5244,40 @@
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="37" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="45" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I26" s="45"/>
     </row>
@@ -5269,140 +5285,140 @@
       <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="37" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I27" s="37"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>126</v>
+      <c r="C28" s="62"/>
+      <c r="D28" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>127</v>
+      <c r="C29" s="62"/>
+      <c r="D29" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>115</v>
+      <c r="C30" s="62"/>
+      <c r="D30" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>210</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="50" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>127</v>
+      <c r="C31" s="62"/>
+      <c r="D31" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>122</v>
+      <c r="C32" s="62"/>
+      <c r="D32" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="53" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="80" t="s">
@@ -5419,7 +5435,7 @@
       <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="81"/>
       <c r="C34" s="32" t="s">
         <v>63</v>
@@ -5432,7 +5448,7 @@
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="81"/>
       <c r="C35" s="32" t="s">
         <v>64</v>
@@ -5445,7 +5461,7 @@
       <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="81"/>
       <c r="C36" s="34" t="s">
         <v>65</v>
@@ -5458,22 +5474,22 @@
       <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="81"/>
       <c r="C37" s="32" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="82"/>
       <c r="C38" s="34"/>
       <c r="D38" s="37"/>
@@ -5484,8 +5500,8 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="32" t="s">
@@ -5499,8 +5515,8 @@
       <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="32" t="s">
         <v>42</v>
       </c>
@@ -5512,13 +5528,13 @@
       <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
@@ -5527,11 +5543,11 @@
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -5540,11 +5556,11 @@
       <c r="I42" s="37"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
@@ -5553,107 +5569,107 @@
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="72"/>
-      <c r="B44" s="60" t="s">
+      <c r="A44" s="69"/>
+      <c r="B44" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+      <c r="B46" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="68"/>
+      <c r="B47" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>161</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
-      <c r="B46" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
-      <c r="B47" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
@@ -5662,14 +5678,14 @@
       <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="71"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="78" t="s">
-        <v>166</v>
+      <c r="A49" s="68"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -5677,56 +5693,56 @@
       <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="71"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="33" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="71"/>
-      <c r="B51" s="75" t="s">
-        <v>182</v>
+      <c r="A51" s="68"/>
+      <c r="B51" s="70" t="s">
+        <v>169</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F51" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>185</v>
-      </c>
       <c r="H51" s="39" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
-      <c r="B52" s="77"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="33" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="79" t="s">
-        <v>190</v>
+      <c r="E52" s="47" t="s">
+        <v>177</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -5737,13 +5753,13 @@
       <c r="A53" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="69"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="40" t="s">
         <v>111</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -5753,34 +5769,22 @@
     <row r="54" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B33:B38"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
@@ -5797,22 +5801,34 @@
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -14,7 +14,7 @@
     <sheet name="封号等3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">封号等3!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">封号等3!$A$1:$I$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="238">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +543,6 @@
   </si>
   <si>
     <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页禁止登录，提示封号状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,72 +660,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禁止A发帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于封号则不能显示A推文，但仍处于关注状态
-对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被禁封，无法查看原文"
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被禁封，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：推文栏显示“该用户被禁封，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户被禁封，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户被禁封，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示头像，显示用户名和账号，显示：该用户被禁封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示头像，显示用户名和账号，显示：该用户被禁封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示相关贴
-对于回复贴，或者转发贴，在二级内容显示“该用户被禁封，无法查看原文”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示A头像，显示A用户名和账号，显示：该用户被禁封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不能给A用户发私信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：推文栏显示“该用户被冻结，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被冻结，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户被冻结，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户被冻结，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于冻结则不能显示A推文，但仍处于关注状态
-对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被冻结，无法查看原文"
-禁止A用户回复，转发，带评论转发，点赞，点踩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -826,69 +757,6 @@
   </si>
   <si>
     <t>强删关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能</t>
-  </si>
-  <si>
-    <t>增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能, 选择A用户，强制删除A用户对所有用户的关注状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能: 设置A账号为封号状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能: 设置A账号为冻结状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">注销账号
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用户自己选择注销账号
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A用户：将自己注销，
-B用户：作为其它用户</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -925,199 +793,272 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注销账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">增加注销账号功能，需要有确认
+    <t>用户综合信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能: 可以显示对用户的私密状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户操作历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能看到A发出的帖，C用户可以看到A发出的帖
+对于回复或者转发，副帖，B看上去显示“此为私密帖，无法查看”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A主页，仅显示基础信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A显示，该用户为私密状态，您无法查看详细信息,成为该用户的粉丝，即可访问该用户的详细信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户：推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户：（唯一进入方式为URL输入）推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B用户可以搜到A用户，但显示该用户为私密账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被封号，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能, 选择A用户，强制删除A用户对所有用户的关注状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能：可以显示对用户进行清理关注操作的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能
+ok 通用功能：可以按照管理员名字，时间顺序，某个用户，某种操作作为查询条件进行查询
+ok 可以显示对用户封号的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能: 设置A账号为封号状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 登录页禁止登录，提示封号状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 可以显示用户操作的所有历史记录，如发帖，关注等等.
+是否要增加本功能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能: 设置A账号为冻结状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能：可以显示对用户进行冻结操作的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户：推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户：推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 推文栏显示“该用户被禁封，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示按钮
+ok 显示“冻结”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示</t>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的粉丝列表中出现A，不显示按钮，显示冻结
+ok 其它用户的关注列表中出现A，不显示按钮，显示冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于封号则不能显示A推文，但仍处于关注状态
+ok 不显示A相关的直接转发推文
+ok 对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被禁封，无法查看原文"
 </t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示A头像，显示A用户名和账号
+ok 在最后一条聊天内容的位置显示：该用户被禁封
+ok 点击显示：该用户处于禁封状态，目前无法查看与该用户的私信记录
+ok 点击头像显示：该用户处于禁封状态，目前无法查看该用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 其它用户看A不显示
+ok 其它用户的粉丝列表中出现A，不显示头像，不显示按钮，显示封号
+ok 点击头像显示：该用户处于禁封状态，目前无法查看该用户的信息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的关注列表中出现A，不显示头像，不显示按钮，显示封号
+ok 点击头像显示：该用户处于禁封状态，目前无法查看该用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被封号，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示相关贴
+ok 对于回复贴，或者转发贴，在二级内容显示“该用户被禁封，无法查看原文”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的主页，对于直接转发帖，不显示
+ok 其它用户的主页副推文显示“用户被封号，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言： 不显示A的头像
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言： 发言内容替换为：用户处于禁封状态，无法查看内容（红字）
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言：点击A头像，提示：该用户处于禁封状态，目前无法查看该用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言： 不显示A的头像
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言： 发言内容替换为：用户处于禁封状态，无法查看内容
+ok 其它用户看其它用户的主页，在聊天室中看到A以前的发言：点击A头像，提示：该用户处于禁封状态，目前无法查看该用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 所有头像位置禁止弹窗，包括用户信息条，私信列表，公共聊天室，私有聊天室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不能登录系统，提示账号已冻结，这个修改有错误，现在改为可以登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 禁止A发帖，点击发帖按钮后提示：对不起，您的账户目前处于冻结状态，不能发表或者回复短文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否需要增加冷却期？</t>
+      <t>ok 不显示A的主推文(优先于关注状态，但不取消关注），如：某用户关注了A，如果A处于冻结则不能显示A推文，但仍处于关注状态
+ok 不显示A相关的直接转发推文</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户综合信息显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能
-能够显示冷却期，注销状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能
-通用功能：可以按照管理员名字，时间顺序，某个用户，某种操作作为查询条件进行查询
-可以显示对用户封号的历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能：可以显示对用户进行冻结操作的历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能：可以显示对用户进行清理关注操作的历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能: 可以显示对用户的私密状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员操作历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户操作历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以显示用户操作的所有历史记录，如发帖，关注等等.
-是否要增加本功能？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能登录系统，提示账号已冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">不显示A的主推文
-对于A的回复推文，带评论转发推文：在副推文栏显示“该用户已经注销，无法查看原文"
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
-进入后显示基础信息和注销状态。
-只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：推文栏显示“该用户已注销，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用户：（唯一进入方式为URL输入）推文栏显示“该用户已注销，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户已注销，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示头像，显示用户名和账号，显示：该用户已注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示头像，显示用户名和账号，显示：该用户已注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示A头像，显示A用户名和账号，显示：该用户已注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示相关贴
-对于回复贴，或者转发贴，在二级内容显示“该用户已注销，无法查看原文”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能看到A发出的帖，C用户可以看到A发出的帖
-对于回复或者转发，副帖，B看上去显示“此为私密帖，无法查看”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B看A主页，仅显示基础信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B看A显示，该用户为私密状态，您无法查看详细信息,成为该用户的粉丝，即可访问该用户的详细信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B看A不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户：推文栏显示“该用户为私密账户，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户：（唯一进入方式为URL输入）推文栏显示“该用户为私密账户，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推文栏显示“该用户为私密账户，无法查看原文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B用户可以搜到A用户，但显示该用户为私密账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1129,37 +1070,523 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ok 进入后显示基础信息和封号状态。
-ok 只显示用户名和账号，不显示头像，背景图片，等其它信息</t>
+      <t>ok 对于A的回复推文，带评论转发推文：在副推文栏显示“该用户被冻结，无法查看原文"
+ok 禁止A用户回复，转发，带评论转发，点击回复或者带评论转发按钮后，弹出窗口点击发言后提示：对不起，您的账户目前处于冻结状态，不能发表或者回复短文。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ok 点赞, 短文下方点赞按钮点击提示：对不起，您的账户目前处于冻结状态，不能对短文进行点赞或者点踩操作。
+Ok 点踩, 短文下方点踩按钮点击提示：对不起，您的账户目前处于冻结状态，不能对短文进行点赞或者点踩操作。
+ok 另外：点赞和点踩加入了后台二次判断，防止用户从控制台绕过前端判断直接操作。
+ok 点击直接转发按钮提示：对不起，您的账户目前处于冻结状态，不能对短文进行直接转发操作。
+ok 直接转发加入了前后台双重判断，防止用户绕过前台代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的主页，对于直接转发帖，不显示
+ok 其它用户的主页副推文显示“用户被冻结，无法查看原文"
+ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的粉丝列表中出现A，不显示按钮，显示冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户看A不显示
+ok 其它用户的关注列表中出现A，不显示按钮，显示冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户：（唯一进入方式为URL输入）推文栏显示“该用户被冻结，无法查看原文"
+ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 推文栏显示“该用户被冻结，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 推文栏显示“该用户被冻结，无法查看原文"
+ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能发私信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被冻结，无法查看原文”
+ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 其它用户不能搜索到A用户的推文
+ok  副推文显示“用户被冻结，无法查看原文”
+ok 所有（包含自己发的）短文不能回复，转发，直接转发，点赞和点踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像和主题背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 解除“删号冷却期”的登录限制
+ok 解除“删号冷却期”所有的操作限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 操作类型增加"进入删号冷却期"
+ok 操作类型增加“从删号冷却期恢复正常状态"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加注销账号页面，需要有确认
+ok 删除账号冷却期界面
+ok 进入冷却期和从冷却期恢复页面之间的直接切换
+ok 删除和恢复按钮点击后页面切换会出现长短不一的情况
+ok 删除和恢复按钮点击后返回上级页面会多点几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注销账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户自己选择注销账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A用户：将自己注销（账号冷却期）
+B用户：将自己注销（已经销号）
+C用户：作为其它用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C用户不能搜到B用户的短文
+C用户可以搜到A用户的短文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C用户不能搜索到B用户
+C用户可以搜索到A用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 增加此功能
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制设置用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能
+增加日志记录和显示“强置用户状态”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能方便调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok 增加此功能
+ok 增加“删号冷却期”的状态显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok 增加“销号”的状态显示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示A的主推文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示A的回复转发带评论转发推文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不显示B的主推文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对于B的的回复推文，带评论转发推文：在副推文栏显示“用户已销号，无法查看原文"
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于A用户的短文，不限制
+对于B用户的短文：（唯一进入方式为URL输入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于A用户的短文，不限制
+对于B用的短文显示“用户已销号，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于A用户的短文，不限制
+对于B用的短文显示“用户已销号，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户显示头像, B用户不显示头像，显示用户名和账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户正常，B用户不显示按钮，在按钮的位置显示"已销号"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户点击头像正常显示，B用户点击头像显示：该用户已销号，目前无法查看该用户的信息
+A用户正常，B用户整个用户信息条鼠标移动上去不会变暗
+A用户正常，B用户整个用户信息条不能点击
+A用户正常，B用户用户名字鼠标移动上去不出现下划线，不能点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示头像，显示用户名和账号
+ok 不显示按钮
+ok 显示：封号
+ok 点击头像显示：该用户处于禁封状态，目前无法查看该用户的信息
+整个用户信息条鼠标移动上去不会变暗
+整个用户信息条不能点击
+用户名字鼠标移动上去不出现下划线，不能点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 不显示头像，显示用户名和账号
+ok 不显示按钮
+ok 显示：封号
+ok 点击头像显示：该用户处于禁封状态，目前无法查看该用户的信息
+整个用户信息条鼠标移动上去不会变暗
+整个用户信息条不能点击
+用户名字鼠标移动上去不出现下划线，不能点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户显示头像, B用户不显示头像，AB都显示用户名和账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户正常显示按钮，B用户不显示按钮，在按钮的位置显示"已销号"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok A用户点击头像正常显示，B用户点击头像显示：该用户已销号，目前无法查看该用户的信息
+A用户正常，B用户整个用户信息条鼠标移动上去不会变暗
+A用户正常，B用户整个用户信息条不能点击
+A用户正常，B用户用户名字鼠标移动上去不出现下划线，不能点击</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok 只能够显示用户名，账号，主页等基础信息，不能查看聊天室，推文等等
 ok 其它用户进入A主页，显示（该账号被冻结）
-ok 隐藏私信按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 其它用户不能搜索到A用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 其它用户不能搜索到A用户的推文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 其它用户不能搜索到A用户的推文
-ok  副推文显示“用户被封号，无法查看原文”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 其它用户不能搜索到A用户的推文
-ok  副推文显示“用户被冻结，无法查看原文”</t>
+ok 隐藏私信按钮
+不显示按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 进入后显示基础信息和封号状态。
+ok 显示用户名和账号
+不显示按钮
+不显示头像，不显示背景图
+不显示网站连接，不显示个人说明文字
+不显示登记日期
+不显示关注和粉丝数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户个人主页显示
+B用户个人主页不显示</t>
+  </si>
+  <si>
+    <t>A用户个人主页显示
+B用户个人主页不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户正常显示
+B用户显示“用户已销号，无法查看原文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 显示A头像，不显示B头像，AB都显示用户名和账号
+ok A正常，B在最后一条聊天内容的位置显示：账户已销号
+ok 点击条目：A正常，B点击显示：该用户已销号，目前无法查看与该用户的私信记录
+ok 点击头像：A正常，B显示：该用户已销号，目前无法查看该用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主帖的显示：A的短文正常显示，B的短文不显示
+对于回复贴：A的短文正常显示，B的短文显示" 用户已销号，无法查看原文。"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A用户个人主页正常，B用户个人主页唯一的入口为URL直接进入（如：收藏，或者拷贝给别人的URL链接）
+A用户个人主页正常,B用户个人主页不显示头像，不显示背景图
+A用户个人主页正常，B用户个人主页不显示网站连接，不显示个人说明文字
+A用户个人主页正常，B用户个人主页不显示登记日期
+A用户个人主页正常，B用户个人主页不显示关注和粉丝数量
+A用户个人主页正常，B用户主页显示“该用户已经销号，无法继续访问。”
+不显示按钮
+A用户个人主页正常，B用户个人主页不显示私信按钮和功能按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1798,15 +2225,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -1853,7 +2271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1988,127 +2406,157 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2393,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2408,11 +2856,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -2436,10 +2884,10 @@
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -2458,11 +2906,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2479,11 +2927,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2502,13 +2950,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2527,14 +2975,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="68" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -2552,12 +3000,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2573,12 +3021,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2594,14 +3042,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2617,12 +3065,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2638,12 +3086,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2659,14 +3107,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2682,12 +3130,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2703,14 +3151,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="68" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -2728,12 +3176,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2749,12 +3197,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2770,12 +3218,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2791,12 +3239,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2812,12 +3260,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2833,12 +3281,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2854,13 +3302,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -2879,11 +3327,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2902,13 +3350,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -2927,11 +3375,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2951,10 +3399,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -2973,13 +3421,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2998,11 +3446,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -3021,11 +3469,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3044,11 +3492,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -3067,11 +3515,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3090,10 +3538,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -3117,8 +3565,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -3140,8 +3588,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -3163,8 +3611,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -3186,8 +3634,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -3209,8 +3657,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -3232,13 +3680,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3255,11 +3703,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -3278,11 +3726,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3299,7 +3747,7 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="58" t="s">
         <v>47</v>
       </c>
@@ -3324,6 +3772,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A31:A36"/>
@@ -3340,32 +3814,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,11 +3838,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
@@ -3404,47 +3852,47 @@
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3454,8 +3902,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -3463,8 +3911,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3474,8 +3922,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3485,8 +3933,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -3494,37 +3942,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3534,8 +3982,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -3543,115 +3991,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -3659,75 +4107,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -3737,8 +4185,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -3746,8 +4194,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -3755,8 +4203,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -3764,8 +4212,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -3775,8 +4223,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -3784,38 +4232,38 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
@@ -3826,11 +4274,27 @@
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:B15"/>
@@ -3847,27 +4311,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,11 +4339,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="25" t="s">
         <v>85</v>
       </c>
@@ -3904,234 +4352,234 @@
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="75" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="73" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="10" t="s">
         <v>90</v>
       </c>
@@ -4140,71 +4588,71 @@
       <c r="A27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -4213,32 +4661,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -4247,43 +4695,43 @@
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
@@ -4297,6 +4745,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="A33:A38"/>
@@ -4313,34 +4789,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4364,11 +4812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
@@ -4377,281 +4825,281 @@
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="75" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="73" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -4660,32 +5108,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -4696,41 +5144,41 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="58" t="s">
         <v>47</v>
       </c>
@@ -4744,6 +5192,35 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A1:C1"/>
@@ -4759,35 +5236,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,13 +5245,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4814,38 +5262,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="114.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="44"/>
@@ -4853,376 +5301,410 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="57"/>
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>120</v>
+      <c r="E3" s="49" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="4" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="1:9" ht="264" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="37" t="s">
-        <v>121</v>
+      <c r="C4" s="71"/>
+      <c r="D4" s="49" t="s">
+        <v>182</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="168" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>208</v>
+      <c r="C5" s="71"/>
+      <c r="D5" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>230</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
-        <v>180</v>
+      <c r="H5" s="49" t="s">
+        <v>237</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="D6" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
+      <c r="D9" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="79"/>
+    </row>
+    <row r="10" spans="1:9" ht="108" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51" t="s">
+      <c r="D10" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="62" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="62" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="79"/>
+    </row>
+    <row r="14" spans="1:9" ht="108" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73" t="s">
+      <c r="D14" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="I14" s="73" t="s">
-        <v>198</v>
+      <c r="F14" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="D15" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="42" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="57"/>
+      <c r="B18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="42" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>140</v>
-      </c>
       <c r="G19" s="35"/>
-      <c r="H19" s="35" t="s">
-        <v>185</v>
+      <c r="H19" s="52" t="s">
+        <v>225</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="35"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>175</v>
+      </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
-        <v>187</v>
+      <c r="H20" s="95" t="s">
+        <v>226</v>
       </c>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+    <row r="21" spans="1:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="35"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>175</v>
+      </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
-        <v>186</v>
+      <c r="H21" s="95" t="s">
+        <v>229</v>
       </c>
       <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -5231,11 +5713,11 @@
       <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="38"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -5243,41 +5725,43 @@
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="37" t="s">
-        <v>129</v>
+      <c r="C25" s="71"/>
+      <c r="D25" s="49" t="s">
+        <v>183</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="37" t="s">
-        <v>188</v>
+      <c r="H25" s="49" t="s">
+        <v>235</v>
       </c>
       <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>130</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="45" t="s">
-        <v>146</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="37" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I26" s="45"/>
     </row>
@@ -5285,143 +5769,145 @@
       <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="37"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="37" t="s">
-        <v>189</v>
+      <c r="H27" s="49" t="s">
+        <v>236</v>
       </c>
       <c r="I27" s="37"/>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>213</v>
+      <c r="C28" s="71"/>
+      <c r="D28" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="F28" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
+      <c r="B31" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="G32" s="37"/>
-      <c r="H32" s="37" t="s">
-        <v>194</v>
+      <c r="H32" s="49" t="s">
+        <v>215</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -5434,11 +5920,11 @@
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="32" t="s">
-        <v>63</v>
+    <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
@@ -5448,10 +5934,10 @@
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -5461,10 +5947,10 @@
       <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="34" t="s">
-        <v>65</v>
+      <c r="A36" s="57"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
@@ -5473,25 +5959,25 @@
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="32" t="s">
-        <v>165</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
-        <v>166</v>
-      </c>
+      <c r="H37" s="37"/>
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="46" t="s">
+        <v>208</v>
+      </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -5500,12 +5986,10 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>41</v>
+      <c r="A39" s="57"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -5514,27 +5998,29 @@
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51"/>
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A40" s="57"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="32" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="H40" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="62"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
@@ -5543,11 +6029,11 @@
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
-      <c r="B42" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="62"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -5556,11 +6042,13 @@
       <c r="I42" s="37"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="62"/>
+      <c r="A43" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="71"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
@@ -5568,255 +6056,256 @@
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="88"/>
+      <c r="B44" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="88"/>
+      <c r="B45" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="89"/>
+      <c r="B46" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>155</v>
-      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A49" s="88"/>
+      <c r="B49" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-    </row>
-    <row r="50" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="39"/>
+      <c r="F49" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="88"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>166</v>
+      </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="39" t="s">
-        <v>160</v>
-      </c>
+      <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
     </row>
-    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
-      <c r="B51" s="70" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="88"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
-      <c r="B52" s="71"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="88"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="33" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="47" t="s">
-        <v>177</v>
-      </c>
+      <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
+      <c r="G52" s="50" t="s">
+        <v>163</v>
+      </c>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="88"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="88"/>
+      <c r="B54" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A55" s="89"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B51:B52"/>
+  <mergeCells count="57">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="G6:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A16:A22"/>
@@ -5829,6 +6318,49 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/页面列表.xlsx
+++ b/res/页面列表.xlsx
@@ -14,7 +14,7 @@
     <sheet name="封号等3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">封号等3!$A$1:$I$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">封号等3!$A$1:$I$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="244">
   <si>
     <t>新鲜事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,10 +798,6 @@
   </si>
   <si>
     <t>历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加此功能: 可以显示对用户的私密状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1175,11 +1171,6 @@
   </si>
   <si>
     <t>ok 增加此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok 解除“删号冷却期”的登录限制
-ok 解除“删号冷却期”所有的操作限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1587,6 +1578,58 @@
 A用户个人主页正常，B用户主页显示“该用户已经销号，无法继续访问。”
 不显示按钮
 A用户个人主页正常，B用户个人主页不显示私信按钮和功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ok 解除“删号冷却期”的登录限制
+ok 解除“删号冷却期”所有的操作限制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后台需要增加一个任务，定期扫描数据库，把处于账号冷却期并且超时的用户的状态改为“已销号”状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加强置设置用户为“私密”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到用户将自己设置为“私密”状态的历史记录
+可以看到用户将自己恢复为“正常”状态的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加此功能
+可以显示用户的状态：私密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 增加此功能
+可以看到管理员强置状态为“私密”的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私密状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除私密模式的登录限制
+解除私密模式使用所有后台接口的限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加本页面
+可以实时切换，切换后立即看到账户状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2271,7 +2314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2415,6 +2458,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2439,9 +2485,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,36 +2527,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2496,6 +2545,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2508,14 +2566,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2525,39 +2604,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2856,11 +2902,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
@@ -2881,13 +2927,13 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
@@ -2906,11 +2952,11 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2927,11 +2973,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2950,13 +2996,13 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2975,14 +3021,14 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="59" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
@@ -3000,12 +3046,12 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3021,12 +3067,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3042,14 +3088,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3065,12 +3111,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3086,12 +3132,12 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3107,14 +3153,14 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3130,12 +3176,12 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3151,14 +3197,14 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="59" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
@@ -3176,12 +3222,12 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3197,12 +3243,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3218,12 +3264,12 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3239,12 +3285,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="69"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3260,12 +3306,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3281,12 +3327,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="70"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3302,13 +3348,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
@@ -3327,11 +3373,11 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -3350,13 +3396,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -3375,11 +3421,11 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3399,10 +3445,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
@@ -3421,13 +3467,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3446,11 +3492,11 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
         <v>60</v>
       </c>
@@ -3469,11 +3515,11 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3492,11 +3538,11 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="10" t="s">
         <v>61</v>
       </c>
@@ -3515,11 +3561,11 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3538,10 +3584,10 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -3565,8 +3611,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="15" t="s">
         <v>63</v>
       </c>
@@ -3588,8 +3634,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="16" t="s">
         <v>64</v>
       </c>
@@ -3611,8 +3657,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="15" t="s">
         <v>65</v>
       </c>
@@ -3634,8 +3680,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -3657,8 +3703,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="15" t="s">
         <v>42</v>
       </c>
@@ -3680,13 +3726,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3703,11 +3749,11 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
@@ -3726,11 +3772,11 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3747,11 +3793,11 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="58" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="59"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="11" t="s">
         <v>55</v>
       </c>
@@ -3772,6 +3818,32 @@
     <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="B30:C30"/>
@@ -3788,32 +3860,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,61 +3884,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3902,8 +3948,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +3957,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3922,8 +3968,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3933,8 +3979,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
@@ -3942,37 +3988,37 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3982,8 +4028,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -3991,115 +4037,115 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="21"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="21"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -4107,75 +4153,75 @@
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -4185,8 +4231,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="17" t="s">
         <v>63</v>
       </c>
@@ -4194,8 +4240,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="17" t="s">
         <v>64</v>
       </c>
@@ -4203,8 +4249,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="17" t="s">
         <v>65</v>
       </c>
@@ -4212,8 +4258,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -4223,8 +4269,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="17" t="s">
         <v>42</v>
       </c>
@@ -4232,69 +4278,53 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:B15"/>
@@ -4311,11 +4341,27 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4339,247 +4385,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="77" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="75" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="10" t="s">
         <v>90</v>
       </c>
@@ -4588,71 +4634,71 @@
       <c r="A27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -4661,32 +4707,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -4695,47 +4741,47 @@
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -4745,13 +4791,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -4768,27 +4828,13 @@
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,294 +4858,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -5108,32 +5154,32 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -5144,45 +5190,45 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5192,35 +5238,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A1:C1"/>
@@ -5236,6 +5253,35 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5245,13 +5291,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6:H13"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5262,11 +5308,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="114.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="92"/>
       <c r="D1" s="43" t="s">
         <v>113</v>
       </c>
@@ -5280,20 +5326,20 @@
         <v>131</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I1" s="43" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="44"/>
@@ -5302,14 +5348,14 @@
       <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="49" t="s">
-        <v>193</v>
+      <c r="E3" s="50" t="s">
+        <v>192</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -5317,377 +5363,377 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="264" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="49" t="s">
-        <v>182</v>
+      <c r="C4" s="73"/>
+      <c r="D4" s="50" t="s">
+        <v>181</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>126</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="168" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>230</v>
+      <c r="C5" s="73"/>
+      <c r="D5" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>228</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>127</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="49" t="s">
-        <v>237</v>
+      <c r="H5" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>148</v>
+      <c r="G6" s="83"/>
+      <c r="H6" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="79"/>
+      <c r="D7" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="84"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="79"/>
+      <c r="D8" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="79"/>
+      <c r="D9" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="1:9" ht="108" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="79"/>
+      <c r="D10" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="55" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="55" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E13" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="79"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="79"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" ht="108" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="79" t="s">
+      <c r="D14" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>149</v>
+      <c r="G14" s="84"/>
+      <c r="H14" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="D15" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="91"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="52" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>171</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>172</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="42"/>
-      <c r="H16" s="52" t="s">
-        <v>234</v>
+      <c r="H16" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>198</v>
+      <c r="C17" s="73"/>
+      <c r="D17" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>197</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>128</v>
       </c>
       <c r="G17" s="35"/>
-      <c r="H17" s="53" t="s">
-        <v>223</v>
+      <c r="H17" s="54" t="s">
+        <v>221</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>200</v>
+      <c r="C18" s="73"/>
+      <c r="D18" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>199</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>123</v>
       </c>
       <c r="G18" s="35"/>
-      <c r="H18" s="52" t="s">
-        <v>224</v>
+      <c r="H18" s="53" t="s">
+        <v>222</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>199</v>
+      <c r="C19" s="73"/>
+      <c r="D19" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>198</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="35"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="A20" s="64"/>
+      <c r="B20" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="132" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>175</v>
+      <c r="E20" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
+      <c r="B21" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="132" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>175</v>
+      <c r="E21" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="95" t="s">
-        <v>229</v>
+      <c r="H21" s="58" t="s">
+        <v>227</v>
       </c>
       <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36" t="s">
@@ -5698,13 +5744,13 @@
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="71"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -5713,11 +5759,11 @@
       <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="71"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="38"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -5726,35 +5772,35 @@
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="49" t="s">
-        <v>183</v>
+      <c r="C25" s="73"/>
+      <c r="D25" s="50" t="s">
+        <v>182</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="49" t="s">
-        <v>235</v>
+      <c r="H25" s="50" t="s">
+        <v>233</v>
       </c>
       <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>130</v>
@@ -5769,145 +5815,145 @@
       <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>202</v>
+      <c r="C27" s="73"/>
+      <c r="D27" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>201</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="49" t="s">
-        <v>236</v>
+      <c r="H27" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>203</v>
+      <c r="C28" s="73"/>
+      <c r="D28" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>114</v>
       </c>
       <c r="G28" s="37"/>
-      <c r="H28" s="49" t="s">
-        <v>215</v>
+      <c r="H28" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>204</v>
+      <c r="C29" s="73"/>
+      <c r="D29" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>115</v>
       </c>
       <c r="G29" s="37"/>
-      <c r="H29" s="49" t="s">
-        <v>215</v>
+      <c r="H29" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>157</v>
+      <c r="C30" s="73"/>
+      <c r="D30" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>156</v>
       </c>
       <c r="F30" s="37" t="s">
         <v>118</v>
       </c>
       <c r="G30" s="37"/>
-      <c r="H30" s="49" t="s">
-        <v>216</v>
+      <c r="H30" s="50" t="s">
+        <v>214</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>204</v>
+      <c r="C31" s="73"/>
+      <c r="D31" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>116</v>
       </c>
       <c r="G31" s="37"/>
-      <c r="H31" s="49" t="s">
-        <v>215</v>
+      <c r="H31" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>204</v>
+      <c r="C32" s="73"/>
+      <c r="D32" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G32" s="37"/>
-      <c r="H32" s="49" t="s">
-        <v>215</v>
+      <c r="H32" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -5921,10 +5967,10 @@
       <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
@@ -5934,8 +5980,8 @@
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="32" t="s">
         <v>63</v>
       </c>
@@ -5947,8 +5993,8 @@
       <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="32" t="s">
         <v>64</v>
       </c>
@@ -5960,10 +6006,10 @@
       <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
@@ -5973,10 +6019,10 @@
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
@@ -5986,8 +6032,8 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="34" t="s">
         <v>65</v>
       </c>
@@ -5999,23 +6045,23 @@
       <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="49" t="s">
-        <v>213</v>
+      <c r="H40" s="50" t="s">
+        <v>211</v>
       </c>
       <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="86" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="32" t="s">
@@ -6029,8 +6075,8 @@
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="32" t="s">
         <v>42</v>
       </c>
@@ -6041,43 +6087,45 @@
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="71"/>
+    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="80"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="49" t="s">
+        <v>241</v>
+      </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-    </row>
-    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="49" t="s">
-        <v>191</v>
-      </c>
+      <c r="I43" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="37"/>
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="50" t="s">
+        <v>190</v>
+      </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -6085,227 +6133,288 @@
       <c r="I45" s="37"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
-      <c r="B46" s="71" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="80"/>
+      <c r="B47" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39" t="s">
+      <c r="C47" s="95"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="87" t="s">
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B48" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="50" t="s">
+      <c r="C48" s="74"/>
+      <c r="D48" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="F48" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="H48" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G47" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="I47" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="I48" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="50" t="s">
+      <c r="E50" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="47" t="s">
+      <c r="F50" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="50" t="s">
-        <v>169</v>
-      </c>
+      <c r="D51" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
     </row>
-    <row r="52" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="33" t="s">
-        <v>138</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="47" t="s">
+        <v>137</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="E52" s="51" t="s">
+        <v>168</v>
+      </c>
       <c r="F52" s="39"/>
-      <c r="G52" s="50" t="s">
-        <v>163</v>
-      </c>
+      <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
     </row>
-    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="48" t="s">
-        <v>218</v>
+    <row r="53" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50" t="s">
-        <v>220</v>
-      </c>
+      <c r="G53" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="39"/>
     </row>
-    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="76" t="s">
+    <row r="54" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C55" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A56" s="80"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="I54" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A55" s="89"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I55" s="39"/>
-    </row>
-    <row r="56" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="D56" s="39"/>
+      <c r="E56" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" s="51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="I56" s="40"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="G6:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A16:A22"/>
@@ -6318,49 +6427,7 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
